--- a/study_data/Correlation/FaultDetection/bug_ALL_TOOL_PAIRS_3.0h_CORR(Raw).xlsx
+++ b/study_data/Correlation/FaultDetection/bug_ALL_TOOL_PAIRS_3.0h_CORR(Raw).xlsx
@@ -2036,17 +2036,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>+ 0.63</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>+ 0.41</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>+ 0.88</t>
         </is>
       </c>
     </row>
@@ -7355,17 +7355,17 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>- 0.01</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>- 0.0</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>- 0.00</t>
         </is>
       </c>
     </row>
@@ -16859,12 +16859,12 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>+ 0.02</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>+ 0.00</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
@@ -17998,7 +17998,7 @@
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>+ 0.00</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
@@ -19127,17 +19127,17 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>+ 0.0</t>
+          <t>- 0.02</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>+ 0.00</t>
+          <t>- 0.0</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>+ 0.01</t>
+          <t>- 0.02</t>
         </is>
       </c>
     </row>
@@ -30905,13 +30905,13 @@
         <v>-0.14</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0.37</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0.5900000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="61">
@@ -34648,13 +34648,13 @@
         <v>-1</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>-0.99</v>
       </c>
       <c r="D257" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E257" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="258">
@@ -41336,7 +41336,7 @@
         <v>0.88</v>
       </c>
       <c r="C609" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="D609" t="n">
         <v>1</v>
@@ -42932,13 +42932,13 @@
         <v>-0.98</v>
       </c>
       <c r="C693" t="n">
-        <v>1</v>
+        <v>-0.98</v>
       </c>
       <c r="D693" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E693" t="n">
-        <v>0.99</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="694">
@@ -50459,13 +50459,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9622149729817867</v>
+        <v>0.9675551441236896</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6514177604386578</v>
+        <v>0.6564673844110496</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6392843427701815</v>
+        <v>0.6446023255731981</v>
       </c>
     </row>
     <row r="3">
@@ -50475,16 +50475,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9622149729817867</v>
+        <v>0.9675551441236896</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6891036948219381</v>
+        <v>0.6883829719547732</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6730468198879148</v>
+        <v>0.6721913881789733</v>
       </c>
     </row>
     <row r="4">
@@ -50494,16 +50494,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6514177604386578</v>
+        <v>0.6564673844110496</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6891036948219381</v>
+        <v>0.6883829719547732</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9398009321170281</v>
+        <v>0.9395218568345152</v>
       </c>
     </row>
     <row r="5">
@@ -50513,13 +50513,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6392843427701815</v>
+        <v>0.6446023255731981</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6730468198879148</v>
+        <v>0.6721913881789733</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9398009321170281</v>
+        <v>0.9395218568345152</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
